--- a/experiment_results/SBFL_ONLY/ZipMe/2Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/ZipMe/2Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -20098,10 +20098,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1.296456352636128</v>
+        <v>0.3025064822817632</v>
       </c>
       <c r="E2">
         <v>2314</v>
@@ -20112,10 +20112,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1.123595505617978</v>
+        <v>0.1296456352636128</v>
       </c>
       <c r="E3">
         <v>2314</v>
@@ -20129,10 +20129,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>1932</v>
       </c>
       <c r="D4">
-        <v>1.98019801980198</v>
+        <v>83.16831683168317</v>
       </c>
       <c r="E4">
         <v>2323</v>
@@ -20143,10 +20143,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0.2152389151958674</v>
+        <v>0.1721911321566939</v>
       </c>
       <c r="E5">
         <v>2323</v>
@@ -20160,10 +20160,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1315</v>
+        <v>2095</v>
       </c>
       <c r="D6">
-        <v>56.17257582229816</v>
+        <v>89.49167022639898</v>
       </c>
       <c r="E6">
         <v>2341</v>
@@ -20174,10 +20174,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>2.007689021785562</v>
+        <v>0.7689021785561726</v>
       </c>
       <c r="E7">
         <v>2341</v>
@@ -20191,10 +20191,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>1936</v>
       </c>
       <c r="D8">
-        <v>4.46927374301676</v>
+        <v>83.1972496776966</v>
       </c>
       <c r="E8">
         <v>2327</v>
@@ -20205,10 +20205,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1350</v>
+        <v>2082</v>
       </c>
       <c r="D9">
-        <v>58.01461108723679</v>
+        <v>89.47142243231629</v>
       </c>
       <c r="E9">
         <v>2327</v>
@@ -20222,10 +20222,10 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>1594</v>
       </c>
       <c r="D10">
-        <v>0.3000428632661808</v>
+        <v>68.32404629232748</v>
       </c>
       <c r="E10">
         <v>2333</v>
@@ -20236,10 +20236,10 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.5143591941705958</v>
+        <v>0.04286326618088298</v>
       </c>
       <c r="E11">
         <v>2333</v>
@@ -20253,10 +20253,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1575</v>
       </c>
       <c r="D12">
-        <v>0.1296456352636128</v>
+        <v>68.06395851339671</v>
       </c>
       <c r="E12">
         <v>2314</v>
@@ -20267,10 +20267,10 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>1260</v>
+        <v>1176</v>
       </c>
       <c r="D13">
-        <v>54.45116681071737</v>
+        <v>50.82108902333622</v>
       </c>
       <c r="E13">
         <v>2314</v>
@@ -20298,10 +20298,10 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1363</v>
+        <v>2074</v>
       </c>
       <c r="D15">
-        <v>58.75</v>
+        <v>89.39655172413794</v>
       </c>
       <c r="E15">
         <v>2320</v>
@@ -20315,10 +20315,10 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1273</v>
+        <v>1242</v>
       </c>
       <c r="D16">
-        <v>54.47154471544715</v>
+        <v>53.14505776636713</v>
       </c>
       <c r="E16">
         <v>2337</v>
@@ -20329,10 +20329,10 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>2.011125374411639</v>
+        <v>0.7702182284980745</v>
       </c>
       <c r="E17">
         <v>2337</v>
@@ -20346,10 +20346,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>1231</v>
+        <v>1197</v>
       </c>
       <c r="D18">
-        <v>52.69691780821918</v>
+        <v>51.24143835616438</v>
       </c>
       <c r="E18">
         <v>2336</v>
@@ -20377,10 +20377,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>1.120206807410599</v>
+        <v>0.1292546316242999</v>
       </c>
       <c r="E20">
         <v>2321</v>
@@ -20391,10 +20391,10 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>1930</v>
       </c>
       <c r="D21">
-        <v>1.507970702283498</v>
+        <v>83.15381301163292</v>
       </c>
       <c r="E21">
         <v>2321</v>
@@ -20422,10 +20422,10 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>1265</v>
+        <v>2073</v>
       </c>
       <c r="D23">
-        <v>54.54937473048728</v>
+        <v>89.39197930142304</v>
       </c>
       <c r="E23">
         <v>2319</v>
@@ -20439,10 +20439,10 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1302</v>
+        <v>2072</v>
       </c>
       <c r="D24">
-        <v>56.16911130284728</v>
+        <v>89.38740293356342</v>
       </c>
       <c r="E24">
         <v>2318</v>
@@ -20453,10 +20453,10 @@
         <v>16</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>1575</v>
       </c>
       <c r="D25">
-        <v>1.121656600517688</v>
+        <v>67.946505608283</v>
       </c>
       <c r="E25">
         <v>2318</v>
@@ -20484,10 +20484,10 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>1227</v>
+        <v>1180</v>
       </c>
       <c r="D27">
-        <v>52.95640914976263</v>
+        <v>50.92792403970652</v>
       </c>
       <c r="E27">
         <v>2317</v>
@@ -20515,10 +20515,10 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <v>1422</v>
+        <v>1310</v>
       </c>
       <c r="D29">
-        <v>60.4849000425351</v>
+        <v>55.72096980008507</v>
       </c>
       <c r="E29">
         <v>2351</v>
@@ -20532,10 +20532,10 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>1273</v>
+        <v>2075</v>
       </c>
       <c r="D30">
-        <v>54.84704868591125</v>
+        <v>89.40112020680741</v>
       </c>
       <c r="E30">
         <v>2321</v>
@@ -20546,10 +20546,10 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>0.4739336492890995</v>
+        <v>0.1723395088323998</v>
       </c>
       <c r="E31">
         <v>2321</v>
@@ -20563,10 +20563,10 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>3.229974160206718</v>
+        <v>0.1291989664082688</v>
       </c>
       <c r="E32">
         <v>2322</v>
@@ -20577,10 +20577,10 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>149</v>
+        <v>1931</v>
       </c>
       <c r="D33">
-        <v>6.416881998277348</v>
+        <v>83.16106804478898</v>
       </c>
       <c r="E33">
         <v>2322</v>
@@ -20594,10 +20594,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1.383484651967142</v>
+        <v>0.1297016861219196</v>
       </c>
       <c r="E34">
         <v>2313</v>
@@ -20608,10 +20608,10 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>104</v>
+        <v>1576</v>
       </c>
       <c r="D35">
-        <v>4.496325118893212</v>
+        <v>68.13661910938175</v>
       </c>
       <c r="E35">
         <v>2313</v>
@@ -20639,10 +20639,10 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>1402</v>
+        <v>1290</v>
       </c>
       <c r="D37">
-        <v>60.14586014586014</v>
+        <v>55.34105534105534</v>
       </c>
       <c r="E37">
         <v>2331</v>
@@ -20656,10 +20656,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>1.370449678800856</v>
+        <v>0.1284796573875803</v>
       </c>
       <c r="E38">
         <v>2335</v>
@@ -20670,10 +20670,10 @@
         <v>13</v>
       </c>
       <c r="C39">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>3.169164882226981</v>
+        <v>0.9421841541755889</v>
       </c>
       <c r="E39">
         <v>2335</v>
@@ -20687,10 +20687,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>1951</v>
       </c>
       <c r="D40">
-        <v>1.707941929974381</v>
+        <v>83.30486763450043</v>
       </c>
       <c r="E40">
         <v>2342</v>
@@ -20701,10 +20701,10 @@
         <v>17</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0.08539709649871904</v>
+        <v>0.04269854824935952</v>
       </c>
       <c r="E41">
         <v>2342</v>
@@ -20718,10 +20718,10 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>1961</v>
       </c>
       <c r="D42">
-        <v>2.390098164746052</v>
+        <v>83.69611609048229</v>
       </c>
       <c r="E42">
         <v>2343</v>
@@ -20732,10 +20732,10 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>2.005975245411865</v>
+        <v>0.7682458386683738</v>
       </c>
       <c r="E43">
         <v>2343</v>
@@ -20749,10 +20749,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>138</v>
+        <v>1990</v>
       </c>
       <c r="D44">
-        <v>5.905006418485238</v>
+        <v>85.15190415062045</v>
       </c>
       <c r="E44">
         <v>2337</v>
@@ -20763,10 +20763,10 @@
         <v>28</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0.08557980316645272</v>
+        <v>0.04278990158322636</v>
       </c>
       <c r="E45">
         <v>2337</v>
@@ -20780,10 +20780,10 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>0.6044905008635579</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="E46">
         <v>2316</v>
@@ -20794,10 +20794,10 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>4.792746113989637</v>
+        <v>0.3454231433506045</v>
       </c>
       <c r="E47">
         <v>2316</v>
@@ -20825,10 +20825,10 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>108</v>
+        <v>1652</v>
       </c>
       <c r="D49">
-        <v>4.639175257731959</v>
+        <v>70.96219931271477</v>
       </c>
       <c r="E49">
         <v>2328</v>
@@ -20842,10 +20842,10 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>0.5995717344753747</v>
+        <v>0.1284796573875803</v>
       </c>
       <c r="E50">
         <v>2335</v>
@@ -20856,10 +20856,10 @@
         <v>17</v>
       </c>
       <c r="C51">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>4.368308351177729</v>
+        <v>0.1713062098501071</v>
       </c>
       <c r="E51">
         <v>2335</v>
@@ -20873,10 +20873,10 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>1932</v>
       </c>
       <c r="D52">
-        <v>0.3013344812742144</v>
+        <v>83.16831683168317</v>
       </c>
       <c r="E52">
         <v>2323</v>
@@ -20887,10 +20887,10 @@
         <v>19</v>
       </c>
       <c r="C53">
-        <v>1308</v>
+        <v>1182</v>
       </c>
       <c r="D53">
-        <v>56.30650021523892</v>
+        <v>50.88247955230306</v>
       </c>
       <c r="E53">
         <v>2323</v>
@@ -20918,10 +20918,10 @@
         <v>19</v>
       </c>
       <c r="C55">
-        <v>1323</v>
+        <v>1179</v>
       </c>
       <c r="D55">
-        <v>57.12435233160622</v>
+        <v>50.90673575129534</v>
       </c>
       <c r="E55">
         <v>2316</v>
@@ -20935,10 +20935,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>1934</v>
       </c>
       <c r="D56">
-        <v>3.232758620689655</v>
+        <v>83.36206896551724</v>
       </c>
       <c r="E56">
         <v>2320</v>
@@ -20949,10 +20949,10 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>1579</v>
       </c>
       <c r="D57">
-        <v>1.120689655172414</v>
+        <v>68.06034482758621</v>
       </c>
       <c r="E57">
         <v>2320</v>
@@ -20966,10 +20966,10 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>1.36986301369863</v>
+        <v>0.1284246575342466</v>
       </c>
       <c r="E58">
         <v>2336</v>
@@ -20980,10 +20980,10 @@
         <v>13</v>
       </c>
       <c r="C59">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>5.950342465753425</v>
+        <v>0.898972602739726</v>
       </c>
       <c r="E59">
         <v>2336</v>
@@ -21011,10 +21011,10 @@
         <v>17</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>1.199657240788346</v>
+        <v>0.2142245072836333</v>
       </c>
       <c r="E61">
         <v>2334</v>
@@ -21028,10 +21028,10 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>1615</v>
       </c>
       <c r="D62">
-        <v>1.371036846615253</v>
+        <v>69.19451585261353</v>
       </c>
       <c r="E62">
         <v>2334</v>
@@ -21042,10 +21042,10 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>3.427592116538132</v>
+        <v>0.7712082262210797</v>
       </c>
       <c r="E63">
         <v>2334</v>
@@ -21059,10 +21059,10 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>1273</v>
+        <v>1242</v>
       </c>
       <c r="D64">
-        <v>54.47154471544715</v>
+        <v>53.14505776636713</v>
       </c>
       <c r="E64">
         <v>2337</v>
@@ -21073,10 +21073,10 @@
         <v>13</v>
       </c>
       <c r="C65">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>2.011125374411639</v>
+        <v>0.7702182284980745</v>
       </c>
       <c r="E65">
         <v>2337</v>
@@ -21104,10 +21104,10 @@
         <v>19</v>
       </c>
       <c r="C67">
-        <v>1402</v>
+        <v>1290</v>
       </c>
       <c r="D67">
-        <v>60.14586014586014</v>
+        <v>55.34105534105534</v>
       </c>
       <c r="E67">
         <v>2331</v>
@@ -21121,10 +21121,10 @@
         <v>28</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0.3854389721627409</v>
+        <v>0.04282655246252676</v>
       </c>
       <c r="E68">
         <v>2335</v>
@@ -21135,10 +21135,10 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>1491</v>
+        <v>2117</v>
       </c>
       <c r="D69">
-        <v>63.85438972162741</v>
+        <v>90.66381156316916</v>
       </c>
       <c r="E69">
         <v>2335</v>
@@ -21152,10 +21152,10 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>1.124567474048443</v>
+        <v>0.129757785467128</v>
       </c>
       <c r="E70">
         <v>2312</v>
@@ -21166,10 +21166,10 @@
         <v>16</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>1573</v>
       </c>
       <c r="D71">
-        <v>1.29757785467128</v>
+        <v>68.0363321799308</v>
       </c>
       <c r="E71">
         <v>2312</v>
@@ -21183,10 +21183,10 @@
         <v>17</v>
       </c>
       <c r="C72">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>1.358234295415959</v>
+        <v>0.04244482173174872</v>
       </c>
       <c r="E72">
         <v>2356</v>
@@ -21197,10 +21197,10 @@
         <v>13</v>
       </c>
       <c r="C73">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>2.122241086587436</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E73">
         <v>2356</v>
@@ -21214,10 +21214,10 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>1277</v>
+        <v>2094</v>
       </c>
       <c r="D74">
-        <v>54.57264957264957</v>
+        <v>89.48717948717949</v>
       </c>
       <c r="E74">
         <v>2340</v>
@@ -21259,10 +21259,10 @@
         <v>17</v>
       </c>
       <c r="C77">
-        <v>1421</v>
+        <v>1309</v>
       </c>
       <c r="D77">
-        <v>60.46808510638297</v>
+        <v>55.70212765957447</v>
       </c>
       <c r="E77">
         <v>2350</v>
@@ -21276,10 +21276,10 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>4.55130957492486</v>
+        <v>0.38643194504079</v>
       </c>
       <c r="E78">
         <v>2329</v>
@@ -21307,10 +21307,10 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>1221</v>
+        <v>2075</v>
       </c>
       <c r="D80">
-        <v>52.60663507109005</v>
+        <v>89.40112020680741</v>
       </c>
       <c r="E80">
         <v>2321</v>
@@ -21321,10 +21321,10 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <v>1211</v>
+        <v>1179</v>
       </c>
       <c r="D81">
-        <v>52.17578629900905</v>
+        <v>50.79707022834985</v>
       </c>
       <c r="E81">
         <v>2321</v>
@@ -21352,10 +21352,10 @@
         <v>19</v>
       </c>
       <c r="C83">
-        <v>1223</v>
+        <v>1200</v>
       </c>
       <c r="D83">
-        <v>52.82937365010799</v>
+        <v>51.83585313174947</v>
       </c>
       <c r="E83">
         <v>2315</v>
@@ -21383,10 +21383,10 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>1.339092872570194</v>
+        <v>0.388768898488121</v>
       </c>
       <c r="E85">
         <v>2315</v>
@@ -21400,10 +21400,10 @@
         <v>16</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>1575</v>
       </c>
       <c r="D86">
-        <v>0.3025064822817632</v>
+        <v>68.06395851339671</v>
       </c>
       <c r="E86">
         <v>2314</v>
@@ -21414,10 +21414,10 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>3.025064822817632</v>
+        <v>0.1728608470181504</v>
       </c>
       <c r="E87">
         <v>2314</v>
@@ -21431,10 +21431,10 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>1.583904109589041</v>
+        <v>0.2568493150684931</v>
       </c>
       <c r="E88">
         <v>2336</v>
@@ -21445,10 +21445,10 @@
         <v>17</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>0.684931506849315</v>
+        <v>0.04280821917808219</v>
       </c>
       <c r="E89">
         <v>2336</v>
